--- a/field_data/group_tests/group_tests_tags.xlsx
+++ b/field_data/group_tests/group_tests_tags.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tyson/Documents/academia/institutions/WUR/courses/WIAS/WIAS_AnimalTracking/field_data/rss_distance_test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tyson/Documents/git/WIAS_tracking_course/field_data/group_tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B20F30-D46C-9C45-B176-54BC3FF814B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE9801F-9846-8047-AA32-E887F66D55B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{51D03FE3-C012-754D-B2BD-50D3DFD42B7F}"/>
   </bookViews>
@@ -36,9 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>tag</t>
+  </si>
+  <si>
+    <t>1955191E</t>
+  </si>
+  <si>
+    <t>34664B33</t>
   </si>
 </sst>
 </file>
@@ -390,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78867C8A-F958-9645-BBF3-D7C3E35B53C9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -403,6 +409,16 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/field_data/group_tests/group_tests_tags.xlsx
+++ b/field_data/group_tests/group_tests_tags.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tyson/Documents/git/WIAS_tracking_course/field_data/group_tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE9801F-9846-8047-AA32-E887F66D55B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FF3E91-B603-5744-81D4-A15198C06BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{51D03FE3-C012-754D-B2BD-50D3DFD42B7F}"/>
   </bookViews>
@@ -36,15 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>tag</t>
-  </si>
-  <si>
-    <t>1955191E</t>
-  </si>
-  <si>
-    <t>34664B33</t>
   </si>
 </sst>
 </file>
@@ -396,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78867C8A-F958-9645-BBF3-D7C3E35B53C9}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -409,16 +403,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
